--- a/nCoV-cases-byCountry.xlsx
+++ b/nCoV-cases-byCountry.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahoi/Desktop/3rd-Year/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbaker/Documents/GitHub/virus_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B592DFF-17FC-6046-B09D-A068D067DA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A427D-1AF6-E44A-9791-F9CEFB2CACF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="960" windowWidth="24600" windowHeight="14500" xr2:uid="{9CFF6A4B-0C8C-CF49-865C-2607A882A69A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,21 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Sum of Deaths</t>
-  </si>
-  <si>
-    <t>Sum of Recovered</t>
-  </si>
-  <si>
-    <t>Sum of Confirmed</t>
-  </si>
-  <si>
-    <t>Mortality Rate</t>
-  </si>
   <si>
     <t xml:space="preserve"> Azerbaijan</t>
   </si>
@@ -309,6 +294,21 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>covid19 Sum of Deaths</t>
+  </si>
+  <si>
+    <t>covid19 Sum of Recovered</t>
+  </si>
+  <si>
+    <t>covid19 Sum of Confirmed</t>
+  </si>
+  <si>
+    <t>covid19 Mortality Rate</t>
   </si>
 </sst>
 </file>
@@ -44437,7 +44437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F219DE9-7172-6448-A1F5-20C8EE7F8DA2}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F219DE9-7172-6448-A1F5-20C8EE7F8DA2}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Country">
   <location ref="A1:D87" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -45707,9 +45707,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of Deaths" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Recovered" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Confirmed" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="covid19 Sum of Deaths" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="covid19 Sum of Recovered" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="covid19 Sum of Confirmed" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -46023,7 +46023,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46042,24 +46042,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -46077,7 +46077,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -46095,7 +46095,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -46113,7 +46113,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -46131,7 +46131,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -46149,7 +46149,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -46167,7 +46167,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -46185,7 +46185,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -46203,7 +46203,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -46221,7 +46221,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -46239,7 +46239,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -46257,7 +46257,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -46275,7 +46275,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -46293,7 +46293,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -46311,7 +46311,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -46329,7 +46329,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -46347,7 +46347,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -46365,7 +46365,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -46383,7 +46383,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -46401,7 +46401,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -46419,7 +46419,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -46437,7 +46437,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -46455,7 +46455,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -46473,7 +46473,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -46491,7 +46491,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -46509,7 +46509,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>28</v>
@@ -46527,7 +46527,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -46545,7 +46545,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -46563,7 +46563,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -46581,7 +46581,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>51</v>
@@ -46599,7 +46599,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -46617,7 +46617,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -46635,7 +46635,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -46653,7 +46653,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>368</v>
@@ -46671,7 +46671,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -46689,7 +46689,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -46707,7 +46707,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -46725,7 +46725,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>267</v>
@@ -46743,7 +46743,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -46761,7 +46761,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>47</v>
@@ -46779,7 +46779,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -46797,7 +46797,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -46815,7 +46815,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -46833,7 +46833,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -46851,7 +46851,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -46869,7 +46869,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -46887,7 +46887,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -46905,7 +46905,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>65325</v>
@@ -46923,7 +46923,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -46941,7 +46941,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -46959,7 +46959,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -46977,7 +46977,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -46995,7 +46995,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -47013,7 +47013,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -47031,7 +47031,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -47049,7 +47049,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -47067,7 +47067,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -47085,7 +47085,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -47103,7 +47103,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -47121,7 +47121,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -47139,7 +47139,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>53</v>
@@ -47157,7 +47157,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -47175,7 +47175,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>43</v>
@@ -47193,7 +47193,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -47211,7 +47211,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -47229,7 +47229,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -47247,7 +47247,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -47265,7 +47265,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -47283,7 +47283,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -47301,7 +47301,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -47319,7 +47319,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -47337,7 +47337,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>156</v>
@@ -47355,7 +47355,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -47373,7 +47373,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -47391,7 +47391,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -47409,7 +47409,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -47427,7 +47427,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -47445,7 +47445,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -47463,7 +47463,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -47481,7 +47481,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -47499,7 +47499,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -47517,7 +47517,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -47535,7 +47535,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>15</v>
@@ -47553,7 +47553,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -47571,7 +47571,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
@@ -47580,7 +47580,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>66378</v>
